--- a/tree_add_button/import.xlsx
+++ b/tree_add_button/import.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jet\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jet\Documents\GitHub\odoo8\tree_add_button\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
   <si>
     <t>所属分类</t>
   </si>
@@ -74,9 +74,6 @@
     <t>单价</t>
   </si>
   <si>
-    <t>精密机械标准件</t>
-  </si>
-  <si>
     <t>笔记本电脑</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
   </si>
   <si>
     <t>办公用品</t>
-  </si>
-  <si>
-    <t>北京热刺库房</t>
   </si>
   <si>
     <t>模板示例</t>
@@ -106,13 +100,6 @@
   </si>
   <si>
     <t>ERP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M0000007</t>
-  </si>
-  <si>
-    <t>M0000007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,7 +438,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -506,47 +493,39 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -555,45 +534,37 @@
         <v>100000</v>
       </c>
       <c r="Q2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -602,45 +573,37 @@
         <v>100000</v>
       </c>
       <c r="Q3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
         <v>21</v>
       </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s">
-        <v>23</v>
-      </c>
       <c r="M4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -649,45 +612,37 @@
         <v>100000</v>
       </c>
       <c r="Q4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
         <v>21</v>
       </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" t="s">
-        <v>23</v>
-      </c>
       <c r="M5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -696,7 +651,7 @@
         <v>100000</v>
       </c>
       <c r="Q5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
